--- a/pypi/prokabaddidata/DATA/DATA__tableau_data/defender skills_d/s5_csv/Dabang Delhi s5 conv.xlsx
+++ b/pypi/prokabaddidata/DATA/DATA__tableau_data/defender skills_d/s5_csv/Dabang Delhi s5 conv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/DATA/DATA__tableau_data/defender skills_d/s5_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C62CF1-BC31-5D4C-B0AF-96ACC908C63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="20" yWindow="900" windowWidth="20540" windowHeight="24940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,22 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
-    <t xml:space="preserve">Defender Success rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defender Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Tackles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Tackles</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Color % Successful Tac..</t>
+    <t>Defender Success rate</t>
+  </si>
+  <si>
+    <t>Defender Name</t>
+  </si>
+  <si>
+    <t>Total Tackles</t>
+  </si>
+  <si>
+    <t>Successful Tackles</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Color % Successful Tac..</t>
   </si>
   <si>
     <t/>
@@ -59,7 +60,7 @@
     <t>1.000</t>
   </si>
   <si>
-    <t xml:space="preserve">Nilesh Shinde</t>
+    <t>Nilesh Shinde</t>
   </si>
   <si>
     <t>37%</t>
@@ -71,7 +72,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Viraj Vishnu Landge</t>
+    <t>Viraj Vishnu Landge</t>
   </si>
   <si>
     <t>35%</t>
@@ -95,7 +96,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Bajirao Hodage</t>
+    <t>Bajirao Hodage</t>
   </si>
   <si>
     <t>28%</t>
@@ -107,7 +108,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Swapnil Shinde</t>
+    <t>Swapnil Shinde</t>
   </si>
   <si>
     <t>34%</t>
@@ -119,7 +120,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Meraj Sheykh</t>
+    <t>Meraj Sheykh</t>
   </si>
   <si>
     <t>26%</t>
@@ -143,7 +144,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Rohit Baliyan</t>
+    <t>Rohit Baliyan</t>
   </si>
   <si>
     <t>38%</t>
@@ -167,7 +168,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Tapas Pal</t>
+    <t>Tapas Pal</t>
   </si>
   <si>
     <t>60%</t>
@@ -179,7 +180,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Abolfazl Maghsodlou</t>
+    <t>Abolfazl Maghsodlou</t>
   </si>
   <si>
     <t>38%</t>
@@ -191,7 +192,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Tushar Bhoir</t>
+    <t>Tushar Bhoir</t>
   </si>
   <si>
     <t>25%</t>
@@ -203,7 +204,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Ravi Dalal</t>
+    <t>Ravi Dalal</t>
   </si>
   <si>
     <t>43%</t>
@@ -215,7 +216,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">R. Sriram</t>
+    <t>R. Sriram</t>
   </si>
   <si>
     <t>20%</t>
@@ -227,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Shubham Ashok Palkar</t>
+    <t>Shubham Ashok Palkar</t>
   </si>
   <si>
     <t>0%</t>
@@ -239,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Anand Patil</t>
+    <t>Anand Patil</t>
   </si>
   <si>
     <t>0%</t>
@@ -251,7 +252,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Rupesh Tomar</t>
+    <t>Rupesh Tomar</t>
   </si>
   <si>
     <t>50%</t>
@@ -263,13 +264,13 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Defensive Skill</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Tackles</t>
+    <t>Defensive Skill</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Successful Tackles</t>
   </si>
   <si>
     <t/>
@@ -311,7 +312,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">self out</t>
+    <t>self out</t>
   </si>
   <si>
     <t/>
@@ -323,35 +324,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <color rgb="FF333333"/>
       <b/>
       <sz val="14"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF333333"/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF666666"/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -361,8 +362,8 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF333333"/>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -372,8 +373,8 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF666666"/>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -619,107 +620,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1001,487 +1005,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26"/>
-    <col min="2" max="2" width="26"/>
+    <col min="1" max="2" width="26"/>
     <col min="3" max="3" width="22"/>
     <col min="4" max="4" width="14"/>
     <col min="5" max="5" width="15"/>
     <col min="6" max="6" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>61</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>51</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>46</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>42</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>39</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>38</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>13</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>24</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>24</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>20</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>3</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="24">
         <v>33</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="26">
         <v>23</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="26">
         <v>14</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="30" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1491,5 +1501,6 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>